--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F240"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2292,9 +2292,1647 @@
         <v>Passed</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v/>
+      </c>
+      <c r="B130" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C130" t="str">
+        <v>dig-io-1</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v/>
+      </c>
+      <c r="B131" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C131" t="str">
+        <v>dig-io-2</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v/>
+      </c>
+      <c r="B132" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C132" t="str">
+        <v>dig-io-3</v>
+      </c>
+      <c r="D132" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v/>
+      </c>
+      <c r="B133" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C133" t="str">
+        <v>dig-io-4</v>
+      </c>
+      <c r="D133" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v/>
+      </c>
+      <c r="B134" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C134" t="str">
+        <v>dig-io-5</v>
+      </c>
+      <c r="D134" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v/>
+      </c>
+      <c r="B135" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C135" t="str">
+        <v>dig-io-6</v>
+      </c>
+      <c r="D135" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v/>
+      </c>
+      <c r="B136" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C136" t="str">
+        <v>dig-io-7</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v/>
+      </c>
+      <c r="B137" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C137" t="str">
+        <v>dig-io-8</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v/>
+      </c>
+      <c r="B138" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C138" t="str">
+        <v>memory-test-1</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v/>
+      </c>
+      <c r="B139" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C139" t="str">
+        <v>rtu-test-1</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v/>
+      </c>
+      <c r="B140" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C140" t="str">
+        <v>rtu-test-2</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v/>
+      </c>
+      <c r="B141" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C141" t="str">
+        <v>rtu-test-3</v>
+      </c>
+      <c r="D141" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v/>
+      </c>
+      <c r="B142" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C142" t="str">
+        <v>analog-io-1</v>
+      </c>
+      <c r="D142" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="E142" t="str">
+        <v>[{"label":"3V","value":3089}]</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v/>
+      </c>
+      <c r="B143" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C143" t="str">
+        <v>analog-io-2</v>
+      </c>
+      <c r="D143" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="E143" t="str">
+        <v>[{"label":"3V","value":3091}]</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v/>
+      </c>
+      <c r="B144" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C144" t="str">
+        <v>analog-io-3</v>
+      </c>
+      <c r="D144" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="E144" t="str">
+        <v>[{"label":"3V","value":3054},{"label":"10V","value":9936}]</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v/>
+      </c>
+      <c r="B145" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C145" t="str">
+        <v>analog-io-4</v>
+      </c>
+      <c r="D145" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="E145" t="str">
+        <v>[{"label":"3V","value":3070}]</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v/>
+      </c>
+      <c r="B146" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C146" t="str">
+        <v>dig-io-1</v>
+      </c>
+      <c r="D146" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v/>
+      </c>
+      <c r="B147" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C147" t="str">
+        <v>dig-io-2</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v/>
+      </c>
+      <c r="B148" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C148" t="str">
+        <v>dig-io-3</v>
+      </c>
+      <c r="D148" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v/>
+      </c>
+      <c r="B149" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C149" t="str">
+        <v>dig-io-4</v>
+      </c>
+      <c r="D149" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v/>
+      </c>
+      <c r="B150" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C150" t="str">
+        <v>dig-io-5</v>
+      </c>
+      <c r="D150" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v/>
+      </c>
+      <c r="B151" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C151" t="str">
+        <v>dig-io-6</v>
+      </c>
+      <c r="D151" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v/>
+      </c>
+      <c r="B152" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C152" t="str">
+        <v>dig-io-7</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v/>
+      </c>
+      <c r="B153" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C153" t="str">
+        <v>dig-io-8</v>
+      </c>
+      <c r="D153" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v/>
+      </c>
+      <c r="B154" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C154" t="str">
+        <v>rtu-test-1</v>
+      </c>
+      <c r="D154" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v/>
+      </c>
+      <c r="B155" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C155" t="str">
+        <v>rtu-test-2</v>
+      </c>
+      <c r="D155" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v/>
+      </c>
+      <c r="B156" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C156" t="str">
+        <v>rtu-test-3</v>
+      </c>
+      <c r="D156" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v/>
+      </c>
+      <c r="B157" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C157" t="str">
+        <v>analog-io-1</v>
+      </c>
+      <c r="D157" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="E157" t="str">
+        <v>[{"label":"3V","value":3089}]</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v/>
+      </c>
+      <c r="B158" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C158" t="str">
+        <v>analog-io-2</v>
+      </c>
+      <c r="D158" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="E158" t="str">
+        <v>[{"label":"3V","value":3091}]</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v/>
+      </c>
+      <c r="B159" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C159" t="str">
+        <v>analog-io-3</v>
+      </c>
+      <c r="D159" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="E159" t="str">
+        <v>[{"label":"3V","value":3056},{"label":"10V","value":9938}]</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v/>
+      </c>
+      <c r="B160" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C160" t="str">
+        <v>analog-io-4</v>
+      </c>
+      <c r="D160" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="E160" t="str">
+        <v>[{"label":"3V","value":3067}]</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v/>
+      </c>
+      <c r="B161" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C161" t="str">
+        <v>dig-io-1</v>
+      </c>
+      <c r="D161" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v/>
+      </c>
+      <c r="B162" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C162" t="str">
+        <v>dig-io-2</v>
+      </c>
+      <c r="D162" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v/>
+      </c>
+      <c r="B163" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C163" t="str">
+        <v>dig-io-3</v>
+      </c>
+      <c r="D163" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v/>
+      </c>
+      <c r="B164" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C164" t="str">
+        <v>dig-io-4</v>
+      </c>
+      <c r="D164" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v/>
+      </c>
+      <c r="B165" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C165" t="str">
+        <v>dig-io-5</v>
+      </c>
+      <c r="D165" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v/>
+      </c>
+      <c r="B166" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C166" t="str">
+        <v>dig-io-6</v>
+      </c>
+      <c r="D166" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v/>
+      </c>
+      <c r="B167" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C167" t="str">
+        <v>dig-io-7</v>
+      </c>
+      <c r="D167" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v/>
+      </c>
+      <c r="B168" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C168" t="str">
+        <v>dig-io-8</v>
+      </c>
+      <c r="D168" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v/>
+      </c>
+      <c r="B169" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C169" t="str">
+        <v>memory-test-1</v>
+      </c>
+      <c r="D169" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v/>
+      </c>
+      <c r="B170" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C170" t="str">
+        <v>rtu-test-1</v>
+      </c>
+      <c r="D170" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v/>
+      </c>
+      <c r="B171" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C171" t="str">
+        <v>rtu-test-2</v>
+      </c>
+      <c r="D171" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v/>
+      </c>
+      <c r="B172" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C172" t="str">
+        <v>rtu-test-3</v>
+      </c>
+      <c r="D172" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v/>
+      </c>
+      <c r="B173" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C173" t="str">
+        <v>analog-io-1</v>
+      </c>
+      <c r="D173" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="E173" t="str">
+        <v>[{"label":"3V","value":3083}]</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v/>
+      </c>
+      <c r="B174" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C174" t="str">
+        <v>analog-io-2</v>
+      </c>
+      <c r="D174" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="E174" t="str">
+        <v>[{"label":"3V","value":3091}]</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v/>
+      </c>
+      <c r="B175" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C175" t="str">
+        <v>analog-io-3</v>
+      </c>
+      <c r="D175" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="E175" t="str">
+        <v>[{"label":"3V","value":3054},{"label":"10V","value":9941}]</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v/>
+      </c>
+      <c r="B176" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C176" t="str">
+        <v>analog-io-4</v>
+      </c>
+      <c r="D176" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="E176" t="str">
+        <v>[{"label":"3V","value":3064}]</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v/>
+      </c>
+      <c r="B177" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C177" t="str">
+        <v>dig-io-1</v>
+      </c>
+      <c r="D177" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v/>
+      </c>
+      <c r="B178" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C178" t="str">
+        <v>dig-io-2</v>
+      </c>
+      <c r="D178" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v/>
+      </c>
+      <c r="B179" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C179" t="str">
+        <v>dig-io-3</v>
+      </c>
+      <c r="D179" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v/>
+      </c>
+      <c r="B180" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C180" t="str">
+        <v>dig-io-4</v>
+      </c>
+      <c r="D180" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v/>
+      </c>
+      <c r="B181" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C181" t="str">
+        <v>dig-io-5</v>
+      </c>
+      <c r="D181" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v/>
+      </c>
+      <c r="B182" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C182" t="str">
+        <v>dig-io-6</v>
+      </c>
+      <c r="D182" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v/>
+      </c>
+      <c r="B183" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C183" t="str">
+        <v>dig-io-7</v>
+      </c>
+      <c r="D183" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v/>
+      </c>
+      <c r="B184" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C184" t="str">
+        <v>dig-io-8</v>
+      </c>
+      <c r="D184" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v/>
+      </c>
+      <c r="B185" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C185" t="str">
+        <v>memory-test-1</v>
+      </c>
+      <c r="D185" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v/>
+      </c>
+      <c r="B186" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C186" t="str">
+        <v>rtu-test-1</v>
+      </c>
+      <c r="D186" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v/>
+      </c>
+      <c r="B187" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C187" t="str">
+        <v>rtu-test-2</v>
+      </c>
+      <c r="D187" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v/>
+      </c>
+      <c r="B188" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C188" t="str">
+        <v>rtu-test-3</v>
+      </c>
+      <c r="D188" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v/>
+      </c>
+      <c r="B189" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C189" t="str">
+        <v>analog-io-1</v>
+      </c>
+      <c r="D189" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="E189" t="str">
+        <v>[{"label":"3V","value":3089}]</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v/>
+      </c>
+      <c r="B190" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C190" t="str">
+        <v>analog-io-2</v>
+      </c>
+      <c r="D190" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="E190" t="str">
+        <v>[{"label":"3V","value":3081}]</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v/>
+      </c>
+      <c r="B191" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C191" t="str">
+        <v>analog-io-3</v>
+      </c>
+      <c r="D191" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="E191" t="str">
+        <v>[{"label":"3V","value":3054},{"label":"10V","value":9938}]</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v/>
+      </c>
+      <c r="B192" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C192" t="str">
+        <v>analog-io-4</v>
+      </c>
+      <c r="D192" t="str">
+        <v>Passed</v>
+      </c>
+      <c r="E192" t="str">
+        <v>[{"label":"3V","value":3070}]</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v/>
+      </c>
+      <c r="B193" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C193" t="str">
+        <v>dig-io-1</v>
+      </c>
+      <c r="D193" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v/>
+      </c>
+      <c r="B194" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C194" t="str">
+        <v>dig-io-2</v>
+      </c>
+      <c r="D194" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v/>
+      </c>
+      <c r="B195" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C195" t="str">
+        <v>dig-io-3</v>
+      </c>
+      <c r="D195" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v/>
+      </c>
+      <c r="B196" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C196" t="str">
+        <v>dig-io-4</v>
+      </c>
+      <c r="D196" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v/>
+      </c>
+      <c r="B197" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C197" t="str">
+        <v>dig-io-5</v>
+      </c>
+      <c r="D197" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v/>
+      </c>
+      <c r="B198" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C198" t="str">
+        <v>dig-io-6</v>
+      </c>
+      <c r="D198" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v/>
+      </c>
+      <c r="B199" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C199" t="str">
+        <v>dig-io-7</v>
+      </c>
+      <c r="D199" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v/>
+      </c>
+      <c r="B200" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C200" t="str">
+        <v>dig-io-8</v>
+      </c>
+      <c r="D200" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v/>
+      </c>
+      <c r="B201" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C201" t="str">
+        <v>memory-test-1</v>
+      </c>
+      <c r="D201" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v/>
+      </c>
+      <c r="B202" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C202" t="str">
+        <v>rtu-test-1</v>
+      </c>
+      <c r="D202" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v/>
+      </c>
+      <c r="B203" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C203" t="str">
+        <v>rtu-test-2</v>
+      </c>
+      <c r="D203" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v/>
+      </c>
+      <c r="B204" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C204" t="str">
+        <v>rtu-test-3</v>
+      </c>
+      <c r="D204" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v/>
+      </c>
+      <c r="B205" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C205" t="str">
+        <v>analog-io-1</v>
+      </c>
+      <c r="D205" t="str">
+        <v>Failed</v>
+      </c>
+      <c r="E205" t="str">
+        <v>{"current":[],"voltage":[{"label":"3V","value":"3.1"}]}</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v/>
+      </c>
+      <c r="B206" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C206" t="str">
+        <v>analog-io-2</v>
+      </c>
+      <c r="D206" t="str">
+        <v>Failed</v>
+      </c>
+      <c r="E206" t="str">
+        <v>{"current":[],"voltage":[{"label":"3V","value":"3.1"}]}</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v/>
+      </c>
+      <c r="B207" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C207" t="str">
+        <v>analog-io-3</v>
+      </c>
+      <c r="D207" t="str">
+        <v>Failed</v>
+      </c>
+      <c r="E207" t="str">
+        <v>{"current":[],"voltage":[{"label":"10V","value":"9.9"}]}</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v/>
+      </c>
+      <c r="B208" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C208" t="str">
+        <v>analog-io-4</v>
+      </c>
+      <c r="D208" t="str">
+        <v>Failed</v>
+      </c>
+      <c r="E208" t="str">
+        <v>{"current":[],"voltage":[{"label":"3V","value":"3.1"}]}</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>123456</v>
+      </c>
+      <c r="B209" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C209" t="str">
+        <v>dig-io-1</v>
+      </c>
+      <c r="D209" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>123456</v>
+      </c>
+      <c r="B210" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C210" t="str">
+        <v>dig-io-2</v>
+      </c>
+      <c r="D210" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>123456</v>
+      </c>
+      <c r="B211" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C211" t="str">
+        <v>dig-io-3</v>
+      </c>
+      <c r="D211" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>123456</v>
+      </c>
+      <c r="B212" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C212" t="str">
+        <v>dig-io-4</v>
+      </c>
+      <c r="D212" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>123456</v>
+      </c>
+      <c r="B213" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C213" t="str">
+        <v>dig-io-5</v>
+      </c>
+      <c r="D213" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>123456</v>
+      </c>
+      <c r="B214" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C214" t="str">
+        <v>dig-io-6</v>
+      </c>
+      <c r="D214" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>123456</v>
+      </c>
+      <c r="B215" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C215" t="str">
+        <v>dig-io-7</v>
+      </c>
+      <c r="D215" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>123456</v>
+      </c>
+      <c r="B216" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C216" t="str">
+        <v>dig-io-8</v>
+      </c>
+      <c r="D216" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>123456</v>
+      </c>
+      <c r="B217" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C217" t="str">
+        <v>memory-test-1</v>
+      </c>
+      <c r="D217" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>123456</v>
+      </c>
+      <c r="B218" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C218" t="str">
+        <v>rtu-test-1</v>
+      </c>
+      <c r="D218" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>123456</v>
+      </c>
+      <c r="B219" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C219" t="str">
+        <v>rtu-test-2</v>
+      </c>
+      <c r="D219" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>123456</v>
+      </c>
+      <c r="B220" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C220" t="str">
+        <v>rtu-test-3</v>
+      </c>
+      <c r="D220" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>123456</v>
+      </c>
+      <c r="B221" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C221" t="str">
+        <v>analog-io-1</v>
+      </c>
+      <c r="D221" t="str">
+        <v>Failed</v>
+      </c>
+      <c r="E221" t="str">
+        <v>{"current":[],"voltage":[{"label":"3V","value":"3.1"}]}</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>123456</v>
+      </c>
+      <c r="B222" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C222" t="str">
+        <v>analog-io-2</v>
+      </c>
+      <c r="D222" t="str">
+        <v>Failed</v>
+      </c>
+      <c r="E222" t="str">
+        <v>{"current":[],"voltage":[{"label":"3V","value":"3.1"}]}</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>123456</v>
+      </c>
+      <c r="B223" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C223" t="str">
+        <v>analog-io-3</v>
+      </c>
+      <c r="D223" t="str">
+        <v>Failed</v>
+      </c>
+      <c r="E223" t="str">
+        <v>{"current":[],"voltage":[{"label":"10V","value":"9.9"}]}</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>123456</v>
+      </c>
+      <c r="B224" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C224" t="str">
+        <v>analog-io-4</v>
+      </c>
+      <c r="D224" t="str">
+        <v>Failed</v>
+      </c>
+      <c r="E224" t="str">
+        <v>{"current":[],"voltage":[{"label":"3V","value":"3.1"}]}</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v/>
+      </c>
+      <c r="B225" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C225" t="str">
+        <v>dig-io-1</v>
+      </c>
+      <c r="D225" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v/>
+      </c>
+      <c r="B226" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C226" t="str">
+        <v>dig-io-2</v>
+      </c>
+      <c r="D226" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v/>
+      </c>
+      <c r="B227" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C227" t="str">
+        <v>dig-io-3</v>
+      </c>
+      <c r="D227" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v/>
+      </c>
+      <c r="B228" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C228" t="str">
+        <v>dig-io-4</v>
+      </c>
+      <c r="D228" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v/>
+      </c>
+      <c r="B229" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C229" t="str">
+        <v>dig-io-5</v>
+      </c>
+      <c r="D229" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v/>
+      </c>
+      <c r="B230" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C230" t="str">
+        <v>dig-io-6</v>
+      </c>
+      <c r="D230" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v/>
+      </c>
+      <c r="B231" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C231" t="str">
+        <v>dig-io-7</v>
+      </c>
+      <c r="D231" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v/>
+      </c>
+      <c r="B232" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C232" t="str">
+        <v>dig-io-8</v>
+      </c>
+      <c r="D232" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v/>
+      </c>
+      <c r="B233" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C233" t="str">
+        <v>memory-test-1</v>
+      </c>
+      <c r="D233" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v/>
+      </c>
+      <c r="B234" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C234" t="str">
+        <v>rtu-test-1</v>
+      </c>
+      <c r="D234" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v/>
+      </c>
+      <c r="B235" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C235" t="str">
+        <v>rtu-test-2</v>
+      </c>
+      <c r="D235" t="str">
+        <v>Passed</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v/>
+      </c>
+      <c r="B236" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C236" t="str">
+        <v>rtu-test-3</v>
+      </c>
+      <c r="D236" t="str">
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v/>
+      </c>
+      <c r="B237" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C237" t="str">
+        <v>analog-io-1</v>
+      </c>
+      <c r="D237" t="str">
+        <v>Failed</v>
+      </c>
+      <c r="E237" t="str">
+        <v>{"current":[],"voltage":[{"label":"3V","value":"3.1"}]}</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v/>
+      </c>
+      <c r="B238" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C238" t="str">
+        <v>analog-io-2</v>
+      </c>
+      <c r="D238" t="str">
+        <v>Failed</v>
+      </c>
+      <c r="E238" t="str">
+        <v>{"current":[],"voltage":[{"label":"3V","value":"3.1"}]}</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v/>
+      </c>
+      <c r="B239" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C239" t="str">
+        <v>analog-io-3</v>
+      </c>
+      <c r="D239" t="str">
+        <v>Failed</v>
+      </c>
+      <c r="E239" t="str">
+        <v>{"current":[],"voltage":[{"label":"10V","value":"9.9"}]}</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v/>
+      </c>
+      <c r="B240" t="str">
+        <v>1179690-1311789061-540095559</v>
+      </c>
+      <c r="C240" t="str">
+        <v>analog-io-4</v>
+      </c>
+      <c r="D240" t="str">
+        <v>Failed</v>
+      </c>
+      <c r="E240" t="str">
+        <v>{"current":[],"voltage":[{"label":"3V","value":"3.1"}]}</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F129"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F240"/>
   </ignoredErrors>
 </worksheet>
 </file>